--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1719.263695321737</v>
+        <v>1822.864108867539</v>
       </c>
       <c r="AB2" t="n">
-        <v>2352.372436500315</v>
+        <v>2494.123092841355</v>
       </c>
       <c r="AC2" t="n">
-        <v>2127.865312736175</v>
+        <v>2256.087485384322</v>
       </c>
       <c r="AD2" t="n">
-        <v>1719263.695321737</v>
+        <v>1822864.108867539</v>
       </c>
       <c r="AE2" t="n">
-        <v>2352372.436500315</v>
+        <v>2494123.092841355</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.289180685865165e-06</v>
+        <v>1.858565918309878e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.575</v>
       </c>
       <c r="AH2" t="n">
-        <v>2127865.312736175</v>
+        <v>2256087.485384322</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>591.4856649293181</v>
+        <v>651.8338986431309</v>
       </c>
       <c r="AB3" t="n">
-        <v>809.2967812621727</v>
+        <v>891.8678970055815</v>
       </c>
       <c r="AC3" t="n">
-        <v>732.0586323136765</v>
+        <v>806.7492766598235</v>
       </c>
       <c r="AD3" t="n">
-        <v>591485.6649293181</v>
+        <v>651833.8986431309</v>
       </c>
       <c r="AE3" t="n">
-        <v>809296.7812621726</v>
+        <v>891867.8970055815</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.418034385901901e-06</v>
+        <v>3.485994126511964e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.56875</v>
       </c>
       <c r="AH3" t="n">
-        <v>732058.6323136765</v>
+        <v>806749.2766598235</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>444.0315666458986</v>
+        <v>495.746432564228</v>
       </c>
       <c r="AB4" t="n">
-        <v>607.543578775097</v>
+        <v>678.3021398234195</v>
       </c>
       <c r="AC4" t="n">
-        <v>549.5604723095694</v>
+        <v>613.565935601704</v>
       </c>
       <c r="AD4" t="n">
-        <v>444031.5666458986</v>
+        <v>495746.432564228</v>
       </c>
       <c r="AE4" t="n">
-        <v>607543.578775097</v>
+        <v>678302.1398234195</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.844600451927672e-06</v>
+        <v>4.100959244214587e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.68541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>549560.4723095694</v>
+        <v>613565.9356017041</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>376.0910972557111</v>
+        <v>419.2579362331286</v>
       </c>
       <c r="AB5" t="n">
-        <v>514.5844312334735</v>
+        <v>573.6472047089069</v>
       </c>
       <c r="AC5" t="n">
-        <v>465.4732153403353</v>
+        <v>518.8991206103965</v>
       </c>
       <c r="AD5" t="n">
-        <v>376091.0972557112</v>
+        <v>419257.9362331286</v>
       </c>
       <c r="AE5" t="n">
-        <v>514584.4312334736</v>
+        <v>573647.2047089069</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.076410807233743e-06</v>
+        <v>4.435151984306745e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.879166666666668</v>
       </c>
       <c r="AH5" t="n">
-        <v>465473.2153403353</v>
+        <v>518899.1206103965</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>362.7537036955763</v>
+        <v>405.9205426729938</v>
       </c>
       <c r="AB6" t="n">
-        <v>496.3356209602207</v>
+        <v>555.398394435654</v>
       </c>
       <c r="AC6" t="n">
-        <v>448.9660459071956</v>
+        <v>502.3919511772569</v>
       </c>
       <c r="AD6" t="n">
-        <v>362753.7036955763</v>
+        <v>405920.5426729938</v>
       </c>
       <c r="AE6" t="n">
-        <v>496335.6209602207</v>
+        <v>555398.394435654</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.128199778998158e-06</v>
+        <v>4.509814301948479e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.716666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>448966.0459071956</v>
+        <v>502391.9511772569</v>
       </c>
     </row>
   </sheetData>
@@ -3073,28 +3073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1045.712800786939</v>
+        <v>1121.384361435946</v>
       </c>
       <c r="AB2" t="n">
-        <v>1430.790387629516</v>
+        <v>1534.32755530313</v>
       </c>
       <c r="AC2" t="n">
-        <v>1294.237761161075</v>
+        <v>1387.893486867248</v>
       </c>
       <c r="AD2" t="n">
-        <v>1045712.800786939</v>
+        <v>1121384.361435946</v>
       </c>
       <c r="AE2" t="n">
-        <v>1430790.387629516</v>
+        <v>1534327.55530313</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.703231195492943e-06</v>
+        <v>2.493466396427608e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.46041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1294237.761161075</v>
+        <v>1387893.486867248</v>
       </c>
     </row>
     <row r="3">
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>458.2164258305419</v>
+        <v>508.5503749599679</v>
       </c>
       <c r="AB3" t="n">
-        <v>626.9519289033472</v>
+        <v>695.8210586793427</v>
       </c>
       <c r="AC3" t="n">
-        <v>567.1165167413697</v>
+        <v>629.412873429975</v>
       </c>
       <c r="AD3" t="n">
-        <v>458216.4258305419</v>
+        <v>508550.3749599679</v>
       </c>
       <c r="AE3" t="n">
-        <v>626951.9289033471</v>
+        <v>695821.0586793427</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.757978920577133e-06</v>
+        <v>4.03757738744591e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="AH3" t="n">
-        <v>567116.5167413696</v>
+        <v>629412.873429975</v>
       </c>
     </row>
     <row r="4">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>358.5181542445918</v>
+        <v>400.5200206735864</v>
       </c>
       <c r="AB4" t="n">
-        <v>490.5403553421298</v>
+        <v>548.0091619818495</v>
       </c>
       <c r="AC4" t="n">
-        <v>443.7238723059888</v>
+        <v>495.7079366979904</v>
       </c>
       <c r="AD4" t="n">
-        <v>358518.1542445918</v>
+        <v>400520.0206735863</v>
       </c>
       <c r="AE4" t="n">
-        <v>490540.3553421298</v>
+        <v>548009.1619818495</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.140247626778057e-06</v>
+        <v>4.597204392775622e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.0125</v>
       </c>
       <c r="AH4" t="n">
-        <v>443723.8723059889</v>
+        <v>495707.9366979903</v>
       </c>
     </row>
     <row r="5">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>340.8074175723189</v>
+        <v>382.8945353473341</v>
       </c>
       <c r="AB5" t="n">
-        <v>466.3077440845685</v>
+        <v>523.8931953769373</v>
       </c>
       <c r="AC5" t="n">
-        <v>421.8039874561658</v>
+        <v>473.8935640988796</v>
       </c>
       <c r="AD5" t="n">
-        <v>340807.4175723189</v>
+        <v>382894.5353473341</v>
       </c>
       <c r="AE5" t="n">
-        <v>466307.7440845685</v>
+        <v>523893.1953769374</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.186427738936558e-06</v>
+        <v>4.664810339728205e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.866666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>421803.9874561658</v>
+        <v>473893.5640988796</v>
       </c>
     </row>
   </sheetData>
@@ -3688,28 +3688,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>335.0538994997377</v>
+        <v>381.4870397045846</v>
       </c>
       <c r="AB2" t="n">
-        <v>458.4355268303597</v>
+        <v>521.9673977442021</v>
       </c>
       <c r="AC2" t="n">
-        <v>414.6830835679723</v>
+        <v>472.1515618893384</v>
       </c>
       <c r="AD2" t="n">
-        <v>335053.8994997377</v>
+        <v>381487.0397045846</v>
       </c>
       <c r="AE2" t="n">
-        <v>458435.5268303597</v>
+        <v>521967.3977442021</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.056284349799569e-06</v>
+        <v>4.728449135226529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>414683.0835679723</v>
+        <v>472151.5618893384</v>
       </c>
     </row>
     <row r="3">
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>317.385807136152</v>
+        <v>356.2223403159023</v>
       </c>
       <c r="AB3" t="n">
-        <v>434.2612633972782</v>
+        <v>487.3991214407345</v>
       </c>
       <c r="AC3" t="n">
-        <v>392.8159779081524</v>
+        <v>440.8824333593932</v>
       </c>
       <c r="AD3" t="n">
-        <v>317385.807136152</v>
+        <v>356222.3403159023</v>
       </c>
       <c r="AE3" t="n">
-        <v>434261.2633972782</v>
+        <v>487399.1214407345</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.168943682546051e-06</v>
+        <v>4.902747028855189e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.07083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>392815.9779081524</v>
+        <v>440882.4333593933</v>
       </c>
     </row>
   </sheetData>
@@ -4091,28 +4091,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>510.1192666116341</v>
+        <v>566.0989329932542</v>
       </c>
       <c r="AB2" t="n">
-        <v>697.9676854517676</v>
+        <v>774.5615346436814</v>
       </c>
       <c r="AC2" t="n">
-        <v>631.3546291560491</v>
+        <v>700.6384688812292</v>
       </c>
       <c r="AD2" t="n">
-        <v>510119.2666116342</v>
+        <v>566098.9329932542</v>
       </c>
       <c r="AE2" t="n">
-        <v>697967.6854517675</v>
+        <v>774561.5346436814</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.503533690641747e-06</v>
+        <v>3.783575366451776e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>631354.6291560491</v>
+        <v>700638.4688812292</v>
       </c>
     </row>
     <row r="3">
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>319.2926136645479</v>
+        <v>359.3146898772503</v>
       </c>
       <c r="AB3" t="n">
-        <v>436.8702402117966</v>
+        <v>491.6302105354051</v>
       </c>
       <c r="AC3" t="n">
-        <v>395.175957637215</v>
+        <v>444.7097132492395</v>
       </c>
       <c r="AD3" t="n">
-        <v>319292.6136645479</v>
+        <v>359314.6898772502</v>
       </c>
       <c r="AE3" t="n">
-        <v>436870.2402117966</v>
+        <v>491630.2105354051</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.22414541511025e-06</v>
+        <v>4.872631519227761e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.41041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>395175.957637215</v>
+        <v>444709.7132492395</v>
       </c>
     </row>
     <row r="4">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>320.8371259645691</v>
+        <v>360.8592021772715</v>
       </c>
       <c r="AB4" t="n">
-        <v>438.9835100797592</v>
+        <v>493.7434804033678</v>
       </c>
       <c r="AC4" t="n">
-        <v>397.0875399949722</v>
+        <v>446.6212956069967</v>
       </c>
       <c r="AD4" t="n">
-        <v>320837.1259645691</v>
+        <v>360859.2021772715</v>
       </c>
       <c r="AE4" t="n">
-        <v>438983.5100797592</v>
+        <v>493743.4804033678</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.22414541511025e-06</v>
+        <v>4.872631519227761e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.41041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>397087.5399949722</v>
+        <v>446621.2956069967</v>
       </c>
     </row>
   </sheetData>
@@ -4600,28 +4600,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>313.0657692663555</v>
+        <v>365.8067690172003</v>
       </c>
       <c r="AB2" t="n">
-        <v>428.3503969972028</v>
+        <v>500.5129596250026</v>
       </c>
       <c r="AC2" t="n">
-        <v>387.4692363013471</v>
+        <v>452.7447052327424</v>
       </c>
       <c r="AD2" t="n">
-        <v>313065.7692663555</v>
+        <v>365806.7690172003</v>
       </c>
       <c r="AE2" t="n">
-        <v>428350.3969972028</v>
+        <v>500512.9596250026</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.046883331980563e-06</v>
+        <v>4.815562514170117e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.95833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>387469.2363013471</v>
+        <v>452744.7052327424</v>
       </c>
     </row>
   </sheetData>
@@ -4897,28 +4897,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1179.295140176065</v>
+        <v>1264.036966700469</v>
       </c>
       <c r="AB2" t="n">
-        <v>1613.563637618608</v>
+        <v>1729.51114321483</v>
       </c>
       <c r="AC2" t="n">
-        <v>1459.567388695076</v>
+        <v>1564.449027090541</v>
       </c>
       <c r="AD2" t="n">
-        <v>1179295.140176065</v>
+        <v>1264036.966700469</v>
       </c>
       <c r="AE2" t="n">
-        <v>1613563.637618608</v>
+        <v>1729511.14321483</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.592362519921972e-06</v>
+        <v>2.321483484766002e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.56666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1459567.388695077</v>
+        <v>1564449.027090541</v>
       </c>
     </row>
     <row r="3">
@@ -5003,28 +5003,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>489.0953807914096</v>
+        <v>539.9404767060516</v>
       </c>
       <c r="AB3" t="n">
-        <v>669.2018773641541</v>
+        <v>738.770380721887</v>
       </c>
       <c r="AC3" t="n">
-        <v>605.3341894192523</v>
+        <v>668.2631724565308</v>
       </c>
       <c r="AD3" t="n">
-        <v>489095.3807914096</v>
+        <v>539940.4767060516</v>
       </c>
       <c r="AE3" t="n">
-        <v>669201.8773641541</v>
+        <v>738770.380721887</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.66321023689777e-06</v>
+        <v>3.882657688853968e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="AH3" t="n">
-        <v>605334.1894192523</v>
+        <v>668263.1724565309</v>
       </c>
     </row>
     <row r="4">
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>378.5128987584524</v>
+        <v>420.7985606746335</v>
       </c>
       <c r="AB4" t="n">
-        <v>517.898046891866</v>
+        <v>575.7551550373273</v>
       </c>
       <c r="AC4" t="n">
-        <v>468.4705841709795</v>
+        <v>520.8058911179993</v>
       </c>
       <c r="AD4" t="n">
-        <v>378512.8987584524</v>
+        <v>420798.5606746335</v>
       </c>
       <c r="AE4" t="n">
-        <v>517898.046891866</v>
+        <v>575755.1550373273</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.068218004714873e-06</v>
+        <v>4.473112960455953e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.15416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>468470.5841709795</v>
+        <v>520805.8911179993</v>
       </c>
     </row>
     <row r="5">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>346.1223195659303</v>
+        <v>388.4932328281319</v>
       </c>
       <c r="AB5" t="n">
-        <v>473.5798274691549</v>
+        <v>531.5535802672656</v>
       </c>
       <c r="AC5" t="n">
-        <v>428.3820334089604</v>
+        <v>480.8228526066925</v>
       </c>
       <c r="AD5" t="n">
-        <v>346122.3195659303</v>
+        <v>388493.2328281319</v>
       </c>
       <c r="AE5" t="n">
-        <v>473579.8274691549</v>
+        <v>531553.5802672656</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.170965544039228e-06</v>
+        <v>4.622907189256014e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.827083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>428382.0334089604</v>
+        <v>480822.8526066925</v>
       </c>
     </row>
     <row r="6">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>347.5971662886177</v>
+        <v>389.9680795508194</v>
       </c>
       <c r="AB6" t="n">
-        <v>475.5977778207812</v>
+        <v>533.5715306188919</v>
       </c>
       <c r="AC6" t="n">
-        <v>430.2073934112385</v>
+        <v>482.6482126089707</v>
       </c>
       <c r="AD6" t="n">
-        <v>347597.1662886177</v>
+        <v>389968.0795508194</v>
       </c>
       <c r="AE6" t="n">
-        <v>475597.7778207812</v>
+        <v>533571.5306188918</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.170666424565212e-06</v>
+        <v>4.622471107076101e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.827083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>430207.3934112385</v>
+        <v>482648.2126089706</v>
       </c>
     </row>
   </sheetData>
@@ -5618,28 +5618,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>322.9985951757303</v>
+        <v>374.9607881884653</v>
       </c>
       <c r="AB2" t="n">
-        <v>441.9409276117616</v>
+        <v>513.0378925019511</v>
       </c>
       <c r="AC2" t="n">
-        <v>399.7627057484818</v>
+        <v>464.0742760947685</v>
       </c>
       <c r="AD2" t="n">
-        <v>322998.5951757303</v>
+        <v>374960.7881884653</v>
       </c>
       <c r="AE2" t="n">
-        <v>441940.9276117616</v>
+        <v>513037.8925019511</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.926609345187425e-06</v>
+        <v>4.68911562472977e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.74166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>399762.7057484819</v>
+        <v>464074.2760947685</v>
       </c>
     </row>
   </sheetData>
@@ -5915,28 +5915,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>733.0957423571558</v>
+        <v>798.9614449329389</v>
       </c>
       <c r="AB2" t="n">
-        <v>1003.053936594637</v>
+        <v>1093.174296648541</v>
       </c>
       <c r="AC2" t="n">
-        <v>907.3238766810859</v>
+        <v>988.8432760561649</v>
       </c>
       <c r="AD2" t="n">
-        <v>733095.7423571558</v>
+        <v>798961.4449329389</v>
       </c>
       <c r="AE2" t="n">
-        <v>1003053.936594637</v>
+        <v>1093174.296648541</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.066301635694099e-06</v>
+        <v>3.068133926977884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.67708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>907323.8766810859</v>
+        <v>988843.2760561649</v>
       </c>
     </row>
     <row r="3">
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>366.1177936101879</v>
+        <v>415.4317296874536</v>
       </c>
       <c r="AB3" t="n">
-        <v>500.9385171945647</v>
+        <v>568.4120201127951</v>
       </c>
       <c r="AC3" t="n">
-        <v>453.1296481851394</v>
+        <v>514.1635746845097</v>
       </c>
       <c r="AD3" t="n">
-        <v>366117.7936101879</v>
+        <v>415431.7296874537</v>
       </c>
       <c r="AE3" t="n">
-        <v>500938.5171945647</v>
+        <v>568412.0201127951</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.055993103162903e-06</v>
+        <v>4.537670569706022e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>453129.6481851394</v>
+        <v>514163.5746845098</v>
       </c>
     </row>
     <row r="4">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>333.8109433674744</v>
+        <v>374.8917561313183</v>
       </c>
       <c r="AB4" t="n">
-        <v>456.7348594148426</v>
+        <v>512.9434397958831</v>
       </c>
       <c r="AC4" t="n">
-        <v>413.1447254636905</v>
+        <v>463.9888378224026</v>
       </c>
       <c r="AD4" t="n">
-        <v>333810.9433674744</v>
+        <v>374891.7561313183</v>
       </c>
       <c r="AE4" t="n">
-        <v>456734.8594148426</v>
+        <v>512943.4397958831</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.218635251626747e-06</v>
+        <v>4.779168657419082e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.06458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>413144.7254636905</v>
+        <v>463988.8378224026</v>
       </c>
     </row>
     <row r="5">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>335.2485988035068</v>
+        <v>376.3294115673507</v>
       </c>
       <c r="AB5" t="n">
-        <v>458.7019230073035</v>
+        <v>514.9105033883442</v>
       </c>
       <c r="AC5" t="n">
-        <v>414.9240552676782</v>
+        <v>465.7681676263903</v>
       </c>
       <c r="AD5" t="n">
-        <v>335248.5988035068</v>
+        <v>376329.4115673507</v>
       </c>
       <c r="AE5" t="n">
-        <v>458701.9230073036</v>
+        <v>514910.5033883442</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.218479762001065e-06</v>
+        <v>4.778937779706165e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.06458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>414924.0552676782</v>
+        <v>465768.1676263903</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>929.8092011821099</v>
+        <v>1004.865164076338</v>
       </c>
       <c r="AB2" t="n">
-        <v>1272.205969344253</v>
+        <v>1374.900849011523</v>
       </c>
       <c r="AC2" t="n">
-        <v>1150.788417182329</v>
+        <v>1243.682241667324</v>
       </c>
       <c r="AD2" t="n">
-        <v>929809.2011821099</v>
+        <v>1004865.164076338</v>
       </c>
       <c r="AE2" t="n">
-        <v>1272205.969344253</v>
+        <v>1374900.849011523</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.817521841141672e-06</v>
+        <v>2.672561321983189e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.4625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1150788.417182329</v>
+        <v>1243682.241667324</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>430.5604900245422</v>
+        <v>472.3531101413267</v>
       </c>
       <c r="AB3" t="n">
-        <v>589.1118574398002</v>
+        <v>646.2943640438584</v>
       </c>
       <c r="AC3" t="n">
-        <v>532.8878485894298</v>
+        <v>584.6129370193487</v>
       </c>
       <c r="AD3" t="n">
-        <v>430560.4900245421</v>
+        <v>472353.1101413267</v>
       </c>
       <c r="AE3" t="n">
-        <v>589111.8574398003</v>
+        <v>646294.3640438584</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.850294729750171e-06</v>
+        <v>4.191194448699371e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.13541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>532887.8485894299</v>
+        <v>584612.9370193487</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>336.1883560300894</v>
+        <v>386.1687110508265</v>
       </c>
       <c r="AB4" t="n">
-        <v>459.9877403038768</v>
+        <v>528.3730670208931</v>
       </c>
       <c r="AC4" t="n">
-        <v>416.0871559661222</v>
+        <v>477.9458830806754</v>
       </c>
       <c r="AD4" t="n">
-        <v>336188.3560300894</v>
+        <v>386168.7110508265</v>
       </c>
       <c r="AE4" t="n">
-        <v>459987.7403038768</v>
+        <v>528373.0670208931</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.189880327730455e-06</v>
+        <v>4.690535537274436e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>416087.1559661222</v>
+        <v>477945.8830806754</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>336.0117546513372</v>
+        <v>385.9921096720741</v>
       </c>
       <c r="AB5" t="n">
-        <v>459.746106506365</v>
+        <v>528.1314332233811</v>
       </c>
       <c r="AC5" t="n">
-        <v>415.8685833591098</v>
+        <v>477.7273104736628</v>
       </c>
       <c r="AD5" t="n">
-        <v>336011.7546513372</v>
+        <v>385992.1096720741</v>
       </c>
       <c r="AE5" t="n">
-        <v>459746.106506365</v>
+        <v>528131.4332233812</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.199021259035442e-06</v>
+        <v>4.703976750964209e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.920833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>415868.5833591098</v>
+        <v>477727.3104736629</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1513.877550378654</v>
+        <v>1608.194246324254</v>
       </c>
       <c r="AB2" t="n">
-        <v>2071.354051991967</v>
+        <v>2200.402316343696</v>
       </c>
       <c r="AC2" t="n">
-        <v>1873.666928433524</v>
+        <v>1990.399007555901</v>
       </c>
       <c r="AD2" t="n">
-        <v>1513877.550378654</v>
+        <v>1608194.246324254</v>
       </c>
       <c r="AE2" t="n">
-        <v>2071354.051991967</v>
+        <v>2200402.316343696</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.38668746779307e-06</v>
+        <v>2.006221303740536e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.09166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1873666.928433524</v>
+        <v>1990399.007555901</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>558.7961123184485</v>
+        <v>610.2028322224029</v>
       </c>
       <c r="AB3" t="n">
-        <v>764.5694932187024</v>
+        <v>834.9064352957143</v>
       </c>
       <c r="AC3" t="n">
-        <v>691.600053865932</v>
+        <v>755.2241369096321</v>
       </c>
       <c r="AD3" t="n">
-        <v>558796.1123184485</v>
+        <v>610202.8322224029</v>
       </c>
       <c r="AE3" t="n">
-        <v>764569.4932187024</v>
+        <v>834906.4352957143</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.497802049621749e-06</v>
+        <v>3.613751332485339e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.26458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>691600.0538659319</v>
+        <v>755224.1369096321</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>422.097036561663</v>
+        <v>465.0923534578806</v>
       </c>
       <c r="AB4" t="n">
-        <v>577.5317870306744</v>
+        <v>636.3598764275898</v>
       </c>
       <c r="AC4" t="n">
-        <v>522.4129638474201</v>
+        <v>575.6265829580359</v>
       </c>
       <c r="AD4" t="n">
-        <v>422097.036561663</v>
+        <v>465092.3534578806</v>
       </c>
       <c r="AE4" t="n">
-        <v>577531.7870306744</v>
+        <v>636359.8764275898</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.914102391225374e-06</v>
+        <v>4.216043221232896e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.5125</v>
       </c>
       <c r="AH4" t="n">
-        <v>522412.9638474201</v>
+        <v>575626.5829580359</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>360.6883222335984</v>
+        <v>403.5982982752444</v>
       </c>
       <c r="AB5" t="n">
-        <v>493.5096749257432</v>
+        <v>552.2209972004608</v>
       </c>
       <c r="AC5" t="n">
-        <v>446.4098041960085</v>
+        <v>499.5178002746856</v>
       </c>
       <c r="AD5" t="n">
-        <v>360688.3222335984</v>
+        <v>403598.2982752444</v>
       </c>
       <c r="AE5" t="n">
-        <v>493509.6749257432</v>
+        <v>552220.9972004609</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.127472859493427e-06</v>
+        <v>4.524741748457446e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.795833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>446409.8041960085</v>
+        <v>499517.8002746856</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>357.5930205535756</v>
+        <v>400.5029965952216</v>
       </c>
       <c r="AB6" t="n">
-        <v>489.2745466120636</v>
+        <v>547.9858688867813</v>
       </c>
       <c r="AC6" t="n">
-        <v>442.5788705845465</v>
+        <v>495.6868666632236</v>
       </c>
       <c r="AD6" t="n">
-        <v>357593.0205535757</v>
+        <v>400502.9965952216</v>
       </c>
       <c r="AE6" t="n">
-        <v>489274.5466120636</v>
+        <v>547985.8688867813</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.143207277208577e-06</v>
+        <v>4.547505871416115e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.745833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>442578.8705845465</v>
+        <v>495686.8666632236</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>580.9407567430369</v>
+        <v>637.5261700294089</v>
       </c>
       <c r="AB2" t="n">
-        <v>794.8687726731864</v>
+        <v>872.2914315038497</v>
       </c>
       <c r="AC2" t="n">
-        <v>719.0076126145859</v>
+        <v>789.0411615498348</v>
       </c>
       <c r="AD2" t="n">
-        <v>580940.7567430369</v>
+        <v>637526.170029409</v>
       </c>
       <c r="AE2" t="n">
-        <v>794868.7726731864</v>
+        <v>872291.4315038497</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.346204617272739e-06</v>
+        <v>3.523259375135907e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>719007.6126145859</v>
+        <v>789041.1615498348</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>325.3532411218939</v>
+        <v>365.747035941868</v>
       </c>
       <c r="AB3" t="n">
-        <v>445.1626580749503</v>
+        <v>500.4312301960957</v>
       </c>
       <c r="AC3" t="n">
-        <v>402.676958777991</v>
+        <v>452.6707759458222</v>
       </c>
       <c r="AD3" t="n">
-        <v>325353.2411218939</v>
+        <v>365747.035941868</v>
       </c>
       <c r="AE3" t="n">
-        <v>445162.6580749503</v>
+        <v>500431.2301960957</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.21656571444518e-06</v>
+        <v>4.830267243414219e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.30416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>402676.958777991</v>
+        <v>452670.7759458222</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>325.6034402108446</v>
+        <v>365.9972350308187</v>
       </c>
       <c r="AB4" t="n">
-        <v>445.5049915064574</v>
+        <v>500.7735636276027</v>
       </c>
       <c r="AC4" t="n">
-        <v>402.986620387263</v>
+        <v>452.9804375550943</v>
       </c>
       <c r="AD4" t="n">
-        <v>325603.4402108446</v>
+        <v>365997.2350308187</v>
       </c>
       <c r="AE4" t="n">
-        <v>445504.9915064574</v>
+        <v>500773.5636276027</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.223724597532872e-06</v>
+        <v>4.841017628000679e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.28125</v>
       </c>
       <c r="AH4" t="n">
-        <v>402986.620387263</v>
+        <v>452980.4375550944</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>390.0260561352913</v>
+        <v>437.0899567417534</v>
       </c>
       <c r="AB2" t="n">
-        <v>533.6508567395127</v>
+        <v>598.0457618620301</v>
       </c>
       <c r="AC2" t="n">
-        <v>482.7199679559745</v>
+        <v>540.9691137124156</v>
       </c>
       <c r="AD2" t="n">
-        <v>390026.0561352913</v>
+        <v>437089.9567417534</v>
       </c>
       <c r="AE2" t="n">
-        <v>533650.8567395128</v>
+        <v>598045.76186203</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.864386885733781e-06</v>
+        <v>4.393244073533642e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.05208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>482719.9679559745</v>
+        <v>540969.1137124156</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>311.5650693948285</v>
+        <v>358.6288804927394</v>
       </c>
       <c r="AB3" t="n">
-        <v>426.2970732267739</v>
+        <v>490.6918558797428</v>
       </c>
       <c r="AC3" t="n">
-        <v>385.6118788697098</v>
+        <v>443.8609138449245</v>
       </c>
       <c r="AD3" t="n">
-        <v>311565.0693948285</v>
+        <v>358628.8804927394</v>
       </c>
       <c r="AE3" t="n">
-        <v>426297.0732267739</v>
+        <v>490691.8558797428</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.203440143946759e-06</v>
+        <v>4.913265906015553e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.77708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>385611.8788697097</v>
+        <v>443860.9138449245</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>314.1152729176928</v>
+        <v>359.9542412576491</v>
       </c>
       <c r="AB2" t="n">
-        <v>429.786374193796</v>
+        <v>492.5052729490824</v>
       </c>
       <c r="AC2" t="n">
-        <v>388.768165849704</v>
+        <v>445.5012609343132</v>
       </c>
       <c r="AD2" t="n">
-        <v>314115.2729176928</v>
+        <v>359954.2412576491</v>
       </c>
       <c r="AE2" t="n">
-        <v>429786.374193796</v>
+        <v>492505.2729490824</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.118215729458409e-06</v>
+        <v>4.872150569333635e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.45416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>388768.165849704</v>
+        <v>445501.2609343132</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>315.8729332088782</v>
+        <v>361.7119015488343</v>
       </c>
       <c r="AB3" t="n">
-        <v>432.191282546695</v>
+        <v>494.9101813019814</v>
       </c>
       <c r="AC3" t="n">
-        <v>390.9435531247124</v>
+        <v>447.6766482093216</v>
       </c>
       <c r="AD3" t="n">
-        <v>315872.9332088782</v>
+        <v>361711.9015488343</v>
       </c>
       <c r="AE3" t="n">
-        <v>432191.282546695</v>
+        <v>494910.1813019814</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.120444250870337e-06</v>
+        <v>4.875632590081372e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.44583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>390943.5531247124</v>
+        <v>447676.6482093215</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>347.0058671803507</v>
+        <v>397.9629089484829</v>
       </c>
       <c r="AB2" t="n">
-        <v>474.7887362945746</v>
+        <v>544.5104089077554</v>
       </c>
       <c r="AC2" t="n">
-        <v>429.4755656727962</v>
+        <v>492.5430997067572</v>
       </c>
       <c r="AD2" t="n">
-        <v>347005.8671803506</v>
+        <v>397962.9089484829</v>
       </c>
       <c r="AE2" t="n">
-        <v>474788.7362945746</v>
+        <v>544510.4089077554</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.712579641030775e-06</v>
+        <v>4.420626300108952e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.13125</v>
       </c>
       <c r="AH2" t="n">
-        <v>429475.5656727962</v>
+        <v>492543.0997067572</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>828.5288588715327</v>
+        <v>903.1182787699519</v>
       </c>
       <c r="AB2" t="n">
-        <v>1133.629736821566</v>
+        <v>1235.686271779547</v>
       </c>
       <c r="AC2" t="n">
-        <v>1025.437705798644</v>
+        <v>1117.754108297481</v>
       </c>
       <c r="AD2" t="n">
-        <v>828528.8588715327</v>
+        <v>903118.2787699519</v>
       </c>
       <c r="AE2" t="n">
-        <v>1133629.736821566</v>
+        <v>1235686.271779547</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.935065785854061e-06</v>
+        <v>2.858829047985056e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.56458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1025437.705798644</v>
+        <v>1117754.108297481</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>394.0530477012979</v>
+        <v>443.7508806820535</v>
       </c>
       <c r="AB3" t="n">
-        <v>539.1607642584524</v>
+        <v>607.1595318563734</v>
       </c>
       <c r="AC3" t="n">
-        <v>487.7040176345104</v>
+        <v>549.2130782897553</v>
       </c>
       <c r="AD3" t="n">
-        <v>394053.047701298</v>
+        <v>443750.8806820535</v>
       </c>
       <c r="AE3" t="n">
-        <v>539160.7642584525</v>
+        <v>607159.5318563734</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.948144120305646e-06</v>
+        <v>4.355531533030668e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.87291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>487704.0176345104</v>
+        <v>549213.0782897554</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>330.2328467126163</v>
+        <v>379.8453388388002</v>
       </c>
       <c r="AB4" t="n">
-        <v>451.8391497171822</v>
+        <v>519.7211501929054</v>
       </c>
       <c r="AC4" t="n">
-        <v>408.7162554284029</v>
+        <v>470.1196930517092</v>
       </c>
       <c r="AD4" t="n">
-        <v>330232.8467126163</v>
+        <v>379845.3388388002</v>
       </c>
       <c r="AE4" t="n">
-        <v>451839.1497171822</v>
+        <v>519721.1501929053</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.209107190662554e-06</v>
+        <v>4.741073363929416e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.989583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>408716.2554284029</v>
+        <v>470119.6930517092</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>331.4580983418581</v>
+        <v>381.070590468042</v>
       </c>
       <c r="AB5" t="n">
-        <v>453.5155930505978</v>
+        <v>521.397593526321</v>
       </c>
       <c r="AC5" t="n">
-        <v>410.2327013629804</v>
+        <v>471.6361389862867</v>
       </c>
       <c r="AD5" t="n">
-        <v>331458.0983418581</v>
+        <v>381070.5904680421</v>
       </c>
       <c r="AE5" t="n">
-        <v>453515.5930505978</v>
+        <v>521397.5935263209</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.208645581457914e-06</v>
+        <v>4.740391391351175e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.989583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>410232.7013629804</v>
+        <v>471636.1389862867</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1329.303088738303</v>
+        <v>1423.036559131504</v>
       </c>
       <c r="AB2" t="n">
-        <v>1818.811130725085</v>
+        <v>1947.061400145927</v>
       </c>
       <c r="AC2" t="n">
-        <v>1645.226349126137</v>
+        <v>1761.236592833838</v>
       </c>
       <c r="AD2" t="n">
-        <v>1329303.088738303</v>
+        <v>1423036.559131504</v>
       </c>
       <c r="AE2" t="n">
-        <v>1818811.130725085</v>
+        <v>1947061.400145927</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.488223858839907e-06</v>
+        <v>2.161152576126863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.75833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1645226.349126137</v>
+        <v>1761236.592833838</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>517.3362959104646</v>
+        <v>576.868494086268</v>
       </c>
       <c r="AB3" t="n">
-        <v>707.8423433312888</v>
+        <v>789.2969232506462</v>
       </c>
       <c r="AC3" t="n">
-        <v>640.2868635467182</v>
+        <v>713.9675326807931</v>
       </c>
       <c r="AD3" t="n">
-        <v>517336.2959104647</v>
+        <v>576868.494086268</v>
       </c>
       <c r="AE3" t="n">
-        <v>707842.3433312888</v>
+        <v>789296.9232506462</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.58426358829538e-06</v>
+        <v>3.75278751114029e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.95416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>640286.8635467183</v>
+        <v>713967.5326807931</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>401.0412130525842</v>
+        <v>443.6008759100968</v>
       </c>
       <c r="AB4" t="n">
-        <v>548.7222803881791</v>
+        <v>606.9542887096388</v>
       </c>
       <c r="AC4" t="n">
-        <v>496.352996084488</v>
+        <v>549.0274232608846</v>
       </c>
       <c r="AD4" t="n">
-        <v>401041.2130525841</v>
+        <v>443600.8759100968</v>
       </c>
       <c r="AE4" t="n">
-        <v>548722.2803881791</v>
+        <v>606954.2887096389</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.985344144055263e-06</v>
+        <v>4.335224266985977e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.34791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>496352.9960844881</v>
+        <v>549027.4232608846</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>351.2043168915245</v>
+        <v>393.8492310950577</v>
       </c>
       <c r="AB5" t="n">
-        <v>480.5332404119316</v>
+        <v>538.8818933860405</v>
       </c>
       <c r="AC5" t="n">
-        <v>434.6718223796547</v>
+        <v>487.4517618067636</v>
       </c>
       <c r="AD5" t="n">
-        <v>351204.3168915245</v>
+        <v>393849.2310950577</v>
       </c>
       <c r="AE5" t="n">
-        <v>480533.2404119315</v>
+        <v>538881.8933860405</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.15941755346824e-06</v>
+        <v>4.588008278580371e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.777083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>434671.8223796547</v>
+        <v>487451.7618067636</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>351.7649752048028</v>
+        <v>394.409889408336</v>
       </c>
       <c r="AB6" t="n">
-        <v>481.3003578506581</v>
+        <v>539.6490108247671</v>
       </c>
       <c r="AC6" t="n">
-        <v>435.3657272066853</v>
+        <v>488.1456666337942</v>
       </c>
       <c r="AD6" t="n">
-        <v>351764.9752048028</v>
+        <v>394409.889408336</v>
       </c>
       <c r="AE6" t="n">
-        <v>481300.3578506581</v>
+        <v>539649.0108247671</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.160603743651634e-06</v>
+        <v>4.589730827211339e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.772916666666665</v>
       </c>
       <c r="AH6" t="n">
-        <v>435365.7272066853</v>
+        <v>488145.6666337942</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>392.7500968189974</v>
+        <v>449.6754980896373</v>
       </c>
       <c r="AB2" t="n">
-        <v>537.3780093791529</v>
+        <v>615.2658547691028</v>
       </c>
       <c r="AC2" t="n">
-        <v>486.0914063787788</v>
+        <v>556.5457451209895</v>
       </c>
       <c r="AD2" t="n">
-        <v>392750.0968189974</v>
+        <v>449675.4980896373</v>
       </c>
       <c r="AE2" t="n">
-        <v>537378.0093791529</v>
+        <v>615265.8547691028</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.322476736210305e-06</v>
+        <v>3.871430348324035e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.08958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>486091.4063787788</v>
+        <v>556545.7451209895</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>444.2455745326019</v>
+        <v>499.7580205087414</v>
       </c>
       <c r="AB2" t="n">
-        <v>607.8363938070461</v>
+        <v>683.7909714278723</v>
       </c>
       <c r="AC2" t="n">
-        <v>549.8253414858376</v>
+        <v>618.5309208214513</v>
       </c>
       <c r="AD2" t="n">
-        <v>444245.5745326019</v>
+        <v>499758.0205087414</v>
       </c>
       <c r="AE2" t="n">
-        <v>607836.3938070461</v>
+        <v>683790.9714278722</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.674359918309161e-06</v>
+        <v>4.070126068542197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.72083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>549825.3414858376</v>
+        <v>618530.9208214513</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>315.3206994219974</v>
+        <v>362.890604422321</v>
       </c>
       <c r="AB3" t="n">
-        <v>431.4356919166495</v>
+        <v>496.5229345741866</v>
       </c>
       <c r="AC3" t="n">
-        <v>390.2600750039203</v>
+        <v>449.1354825727409</v>
       </c>
       <c r="AD3" t="n">
-        <v>315320.6994219974</v>
+        <v>362890.604422321</v>
       </c>
       <c r="AE3" t="n">
-        <v>431435.6919166495</v>
+        <v>496522.9345741866</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.218801267008113e-06</v>
+        <v>4.898714962266304e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.56875</v>
       </c>
       <c r="AH3" t="n">
-        <v>390260.0750039204</v>
+        <v>449135.4825727409</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>651.1679468466651</v>
+        <v>716.4123752163431</v>
       </c>
       <c r="AB2" t="n">
-        <v>890.9567123779375</v>
+        <v>980.2270176543644</v>
       </c>
       <c r="AC2" t="n">
-        <v>805.9250542141858</v>
+        <v>886.675526846691</v>
       </c>
       <c r="AD2" t="n">
-        <v>651167.9468466651</v>
+        <v>716412.3752163431</v>
       </c>
       <c r="AE2" t="n">
-        <v>890956.7123779375</v>
+        <v>980227.0176543645</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.197815448489607e-06</v>
+        <v>3.281142186535469e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.90416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>805925.0542141858</v>
+        <v>886675.526846691</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>341.1488272572761</v>
+        <v>381.8946816764115</v>
       </c>
       <c r="AB3" t="n">
-        <v>466.7748758774592</v>
+        <v>522.5251514739504</v>
       </c>
       <c r="AC3" t="n">
-        <v>422.2265368463666</v>
+        <v>472.6560843859318</v>
       </c>
       <c r="AD3" t="n">
-        <v>341148.8272572762</v>
+        <v>381894.6816764115</v>
       </c>
       <c r="AE3" t="n">
-        <v>466774.8758774592</v>
+        <v>522525.1514739504</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.157188069326833e-06</v>
+        <v>4.713399831734656e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>422226.5368463666</v>
+        <v>472656.0843859318</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>328.7692982025036</v>
+        <v>369.515152621639</v>
       </c>
       <c r="AB4" t="n">
-        <v>449.8366580784427</v>
+        <v>505.5869336749337</v>
       </c>
       <c r="AC4" t="n">
-        <v>406.9048787811502</v>
+        <v>457.3344263207154</v>
       </c>
       <c r="AD4" t="n">
-        <v>328769.2982025036</v>
+        <v>369515.152621639</v>
       </c>
       <c r="AE4" t="n">
-        <v>449836.6580784427</v>
+        <v>505586.9336749337</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.227781039952188e-06</v>
+        <v>4.818788832503983e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.14791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>406904.8787811502</v>
+        <v>457334.4263207154</v>
       </c>
     </row>
   </sheetData>
